--- a/All Records with out Keyword.xlsx
+++ b/All Records with out Keyword.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Site Name</x:t>
   </x:si>
@@ -28,457 +28,554 @@
     <x:t>Site NoticeType</x:t>
   </x:si>
   <x:si>
-    <x:t>Non-Personal Landscape and Grounds Maintenance for the National Weather Service at Wilmington, OH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/785818d559de4fdea924ca7b93eb2b70/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non-Personal Landscape and Grounds Maintenance for the National Weather Service at Wilmington, OH
-Notice ID: NWWN99042200254KDK
-This is a combined synopsis/solicitation for commercial items prepared in accordance with the format in FAR Subpart 12.6, as supplemented with addi
+    <x:t>FY 22-27 MK 41 Vertical Launching System (VLS) Production</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/81c4f55166924e4ab7da82352eebeb34/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FY 22-27 MK 41 Vertical Launching System (VLS) Production
+Notice ID: N0002422R5325
+UPDATED 06/06/2022: Amendment 0006 and Bidders Q and A document added.
+UPDATED 05/23/2022: Amendment 0005 and Bidders Q and A document adde
 ...
 Department/Ind.Agency
-COMMERCE, DEPARTMENT OF
-Subtier
-NATIONAL OCEANIC AND ATMOSPHERIC ADMINISTRATION
-Office
-DEPT OF COMMERCE NOAA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 13, 2022, 07:00 PM GMT+1
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+NAVSEA HQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+September 01, 2022, 10:00 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 6, 2022 (8)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6515--Brand Name or Equal: Medial Syringe Kit Supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/5020829b824e4d36ad562c8fc92927d3/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6515--Brand Name or Equal: Medial Syringe Kit Supplies
+Notice ID: 36C10G22Q0090
+AMENDMENT 0001 - Solicitation Number: 36C10G22Q0090 ENTITLED: BRAND NAME OR EQUAL - MEDICAL SYRINGE KIT SUPPLIES ...
+Department/Ind.Agency
+VETERANS AFFAIRS, DEPARTMENT OF
+Subtier
+VETERANS AFFAIRS, DEPARTMENT OF
+Office
+STRATEGIC ACQUISITION CENTER FREDERICKSBURG (36C10G)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 18, 2022, 04:00 PM GMT+1
 Notice Type
 Updated Combined Synopsis/Solicitation
 Updated Date
-Jun 4, 2022 (2)
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COE028 BLDG 2204 Talley Avenue (3rd Street) Room 63 Audio Visual System Upgrade, JBER-Elmendorf, Alaska</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/5d75f4aa173f4d3aa23c6518aaf7b85f/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COE028 BLDG 2204 Talley Avenue (3rd Street) Room 63 Audio Visual System Upgrade, JBER-Elmendorf, Alaska
-Notice ID: W911KB22Q0012
-COE028 BLDG 2204 Talley Avenue (3rd Street) Room 63 Audio Visual System Upgrade, JBER-Elmendorf, AlaskaSend question and proposals to the points of co...
+Jun 6, 2022 (1)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test &amp; Evaluation Technologies for Ranges, Armaments &amp; Spectrum (TETRAS ) II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/c148366d6d1a4db29702577927bb11e9/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test &amp; Evaluation Technologies for Ranges, Armaments &amp; Spectrum (TETRAS ) II
+Notice ID: FA248722RA002
+TETRAS II is a Research &amp; Development (R&amp;D) Follow-on, Multiple Award ID/IQ.  TETRAS II supports the continuous mission of the test co
+...
 Department/Ind.Agency
 DEPT OF DEFENSE
 Subtier
+DEPT OF THE AIR FORCE
+Office
+FA2487 AFTC PZIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 22, 2022, 08:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICBM MGS Trainer Repair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/025035bc55484bc4a2369385aa613f01/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICBM MGS Trainer Repair
+Notice ID: FA820622R0006
+Solicitation amended to:
+1. Request proposal for FIVE (5) YEAR IDIQ TYPE CONTRACT FOR REPAIR OF M
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE AIR FORCE
+Office
+FA8206 AFSC PZAAA2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 14, 2022, 11:00 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 6, 2022 (1)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Removal and Replacement of AHU-1 Chilled Water Coils - NLAE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/4c74d299b5054a14af636f93b53b0f99/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Removal and Replacement of AHU-1 Chilled Water Coils - NLAE
+Notice ID: 12505B22R0016
+The United States Department of Agriculture (USDA), Agricultural Research Service (ARS) has a requirement for Replace AHU-1 chiller water coils.
+...
+Department/Ind.Agency
+AGRICULTURE, DEPARTMENT OF
+Subtier
+AGRICULTURAL RESEARCH SERVICE
+Office
+USDA ARS MWA AAO ACQ/PER PROP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 13, 2022, 04:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USNS ZEUS Mid-Term Availability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/7dd85dcbaa6949a8a14e36150e5697af/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USNS ZEUS Mid-Term Availability
+Notice ID: N3220522R4066
+This requirement is for the USNS ZEUS (T ARC 7) Mid-Term Availability. See attached solicitation and attachments. This is a total small business set-a...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+MSC NORFOLK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 21, 2022, 08:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300WM Ammunition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/1965368aa94347229ec5d5111db2da7b/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300WM Ammunition
+Notice ID: 70US0922Q70092047
+**Questions &amp; Answers - attached as of 6 June 2022**
+The purpose of this solicitation is to establish and Ind
+...
+Department/Ind.Agency
+HOMELAND SECURITY, DEPARTMENT OF
+Subtier
+U.S. SECRET SERVICE
+Office
+U. S. SECRET SERVICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 15, 2022, 11:20 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 6, 2022 (1)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8(a) Small Business Multiple Award Construction Contract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/748daf902d7c4e36940c24a2e11fef8c/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8(a) Small Business Multiple Award Construction Contract
+Notice ID: N4008019R0001
+The Naval Facilities Engineering Command (NAVFAC) Washington has a requirement to re-procure a follow on 8(a) Multiple Award Construction Contract
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+NAV FAC ENGINEERING CMD WASHINGTON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 19, 2022, 07:00 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 6, 2022 (15)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y1DA--561-12-105 Spinal Cord Renovation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/f534f7a8692c460baaf9be5e6539f3d8/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y1DA--561-12-105 Spinal Cord Renovation
+Notice ID: 36C24222B0032
+Invitation for Bid for Solicitation #36C24222B0032 Spinal Cord Renovation at the East Orange VAMC ...
+Department/Ind.Agency
+VETERANS AFFAIRS, DEPARTMENT OF
+Subtier
+VETERANS AFFAIRS, DEPARTMENT OF
+Office
+242-NETWORK CONTRACT OFFICE 02 (36C242)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 04, 2022, 03:45 PM GMT+1
+Notice Type
+Original Combined Synopsis/Solicitation
+Updated Date
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Secondary Education Expansion for Development (SEED) Rural Group 2 Activity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/18409401e7dd47849ffbeda2dfe49521/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Secondary Education Expansion for Development (SEED) Rural Group 2 Activity
+Notice ID: 72061222R00005
+The United States Government, represented by the U.S Agency for International Development to Malawi (USAID/Malawi), is seeking proposals from quali
+...
+Department/Ind.Agency
+AGENCY FOR INTERNATIONAL DEVELOPMENT
+Subtier
+AGENCY FOR INTERNATIONAL DEVELOPMENT
+Office
+USAID/MALAWI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 18, 2022, 09:00 AM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 6, 2022 (3)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U.S. Department of Agriculture Seeks to Lease Office and Related Space in Clanton, AL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/442f16f582914d6bb9301f9e84c42ea6/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U.S. Department of Agriculture Seeks to Lease Office and Related Space in Clanton, AL
+Notice ID: 57-01021-22-NR
+The U.S. Department of Agriculture (USDA) seeks to lease the following space:
+City, State:  Cla
+...
+Department/Ind.Agency
+AGRICULTURE, DEPARTMENT OF
+Subtier
+FARM PRODUCTION AND CONSERVATION BUSINESS CENTER
+Office
+FPAC BUS CNTR-MGMT SVS DIV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 10, 2022, 10:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEMA Temporary Support Facilities Competition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/f2f6c8acb33d48518f87a8d5d84daab6/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEMA Temporary Support Facilities Competition
+Notice ID: 70FB8022R00000008
+Titlel:  Amendment 0003
+1) The purpose of this amendment is to extend the due dates for Phase 1 and Phase 2 proposals.
+2) Phas
+...
+Department/Ind.Agency
+HOMELAND SECURITY, DEPARTMENT OF
+Subtier
+FEDERAL EMERGENCY MANAGEMENT AGENCY
+Office
+COMMUNITY SURVIVOR ASSISTANCE SEC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 25, 2022, 09:00 PM GMT+1
+Notice Type
+Updated Combined Synopsis/Solicitation
+Updated Date
+Jun 6, 2022 (3)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject: Shelf Stocking, Receiving/Storage/Holding Area, and Custodial Operations at the Kaneohe Bay MCBH Commissary, located near Kaneohe Bay, Hawaii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/d397b587dbf94bab8424f5578d695c55/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject: Shelf Stocking, Receiving/Storage/Holding Area, and Custodial Operations at the Kaneohe Bay MCBH Commissary, located near Kaneohe Bay, Hawaii
+Notice ID: HQC00822R0028
+Furnish all supervision, personnel, equipment, and supplies necessary to perform shelf stocking, receiving/storage/holding area, and custodial operati...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF DEFENSE
+Office
+DEFENSE COMMISSARY AGENCY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 11, 2022, 06:00 AM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Landscaping/Groundskeeping Services in Rome, Italy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/8e8017c6505c49f7afeca7df103040db/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Landscaping/Groundskeeping Services in Rome, Italy
+Notice ID: 191T7022R0002
+Landscaping/Groundskeeping Services in Rome, Italy
+...
+Department/Ind.Agency
+STATE, DEPARTMENT OF
+Subtier
+STATE, DEPARTMENT OF
+Office
+U.S. EMBASSY ROME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 15, 2022, 11:00 AM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FY18 Vehicle Maintenance Shop, Camp Bullis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/ef5e87971ea9418ba43d65ae20aee5e7/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FY18 Vehicle Maintenance Shop, Camp Bullis
+Notice ID: W9126G22B0002
+Vehicle Maintenance Shop, Camp Bullis *Visit 'https://piee.eb.mil/sol/xhtml/unauth/search/oppMgmtLink.xhtml?solNo=W9126G22B0002' to obtain
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
 DEPT OF THE ARMY
 Office
-W2SN ENDIST ALASKA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 23, 2022, 11:00 PM GMT+1
+US ARMY ENGINEER DISTRICT FT WORTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 15, 2022, 08:00 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 6, 2022 (3)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MW19, Cartridge Assembly, SEAWARS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/fa76bb94e383413aae40f765b5b78ebb/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MW19, Cartridge Assembly, SEAWARS
+Notice ID: N0010422RK106
+1377-01-170-1407 DWG 851AS275 First Article Testing may be required. Government Tested LAT....
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+NAVSUP WEAPON SYSTEMS SUPPORT MECH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 14, 2022, 07:00 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 6, 2022 (1)
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59--CIRCUIT CARD ASSEMB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/ac0bf03d6662444c9090a29ca7fb730d/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59--CIRCUIT CARD ASSEMB
+Notice ID: N0010422QZB58
+ITEM UNIQUE IDENTIFICATION AND VALUATION (MAR 2022)|19|||||||||||||||||||| INSPECTION AND ACCEPTANCE OF SUPPLIES|26|X||||||||||||X|||||||||||||| WIDE ...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+NAVSUP WEAPON SYSTEMS SUPPORT MECH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 19, 2022, 06:00 AM GMT+1
 Notice Type
 Original Solicitation
 Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Multipurpose 4x4 UTV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/c59cd71c54dc4a7eb2f9203cac72748d/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Multipurpose 4x4 UTV
-Notice ID: FA303022Q0030
-This solicitation is for Multipurpose 4x4 UTV located on Goodfellow AFB, TX. The product to be delivered under this contract shall be in accordance
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medical Waste Collection, Transportation, and Disposal Services at Marine Corps Air Station Iwakuni, Japan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/5ca757d2e8f14ba6b6f19c94dab460ca/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medical Waste Collection, Transportation, and Disposal Services at Marine Corps Air Station Iwakuni, Japan
+Notice ID: N4008422T5400
+Attachment (1) and (2) will be made available to Offerors via approved controlled document request in Contract Opportunities (https://sam.gov). The
 ...
 Department/Ind.Agency
 DEPT OF DEFENSE
 Subtier
-DEPT OF THE AIR FORCE
-Office
-FA3030 17 CONS CC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 21, 2022, 08:00 PM GMT+1
+DEPT OF THE NAVY
+Office
+NAVAL FAC ENGINEERING CMD FAR EAST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 19, 2022, 03:00 AM GMT+1
 Notice Type
 Original Solicitation
 Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metes and Bounds Survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ef4df9d8200b4f779d7a08f58e92a6a4/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metes and Bounds Survey
-Notice ID: FA303022R0013
-This solicitation is for a Metes and Bounds Survey located on Goodfellow AFB, TX. There are multiple locations to survey. The work to be performed
-...
+Jun 6, 2022
+Published Date
+Jun 6, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FY22 ZNRE063004 Combat Arms Training Maintenance (CATM) Facility, Yokota Air Base</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/2e0de693fbff42cc897b9dcdbd496b70/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FY22 ZNRE063004 Combat Arms Training Maintenance (CATM) Facility, Yokota Air Base
+Notice ID: W912HV22B0008
+Construct a compliant Combat Arms Training Maintenance (CATM) facility utilizing economical design and construction methods to accommodate the mission...
 Department/Ind.Agency
 DEPT OF DEFENSE
 Subtier
-DEPT OF THE AIR FORCE
-Office
-FA3030 17 CONS CC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOLID WASTE REMOVAL SERVICES AT BUREAU OF INDIAN A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/866b1e27a43b44c0942bb6d70a09678b/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOLID WASTE REMOVAL SERVICES AT BUREAU OF INDIAN A
-Notice ID: 140A0722Q0008
-SOLID WASTE REMOVAL SERVICES AT BUREAU OF INDIAN AFFAIRS - UTE MOUNTAIN UTE AGENCY
-THIS ACQUISITION IS SET ASIDE FOR INDIAN ECONOMIC ENTERPR...
-Department/Ind.Agency
-INTERIOR, DEPARTMENT OF THE
-Subtier
-BUREAU OF INDIAN AFFAIRS
-Office
-ALBUQERQUE ACQUISITION OFFICE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 11, 2022, 12:00 AM GMT+1
-Notice Type
-Original Combined Synopsis/Solicitation
-Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TMD Trophies IDIQ Solicitation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/8fc450bf2e074c88a23a8825576736e9/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TMD Trophies IDIQ Solicitation
-Notice ID: W912L1-22-Q-0033
-See Solicitation, Amendment 2, and attachments.
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
 DEPT OF THE ARMY
 Office
-W7N2 USPFO ACTIVITY TX ARNG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 16, 2022, 11:00 PM GMT+1
-Notice Type
-Updated Combined Synopsis/Solicitation
-Updated Date
-Jun 4, 2022 (1)
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rigid Hull Inflatable Boats (RHIBs)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/89842fd9b820495681f0190bd15c50c9/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rigid Hull Inflatable Boats (RHIBs)
-Notice ID: N32253-22-Q-0064
-The Pearl Harbor Naval Shipyard and Intermediate Maintenance Facility (PHNSY &amp; IMF) is issuing a Request for Quotes (RFQ) for a Firm Fixed-Pric
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE NAVY
-Office
-PEARL HARBOR NAVAL SHIPYARD IMF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 17, 2022, 09:00 PM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Automated Solid Phase Extraction (SPE) System for per and poly-fluorinated alkyl substances (PFAS) Analysis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ecb64f331ba34b8085e2c7f3fb793e03/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Automated Solid Phase Extraction (SPE) System for per and poly-fluorinated alkyl substances (PFAS) Analysis
-Notice ID: 75F40122Q112322
-see attached solicitation for the purchase of an Automated Solid Phase Extraction (SPE) System for per and poly-fluorinated alkyl substances (
-...
-Department/Ind.Agency
-HEALTH AND HUMAN SERVICES, DEPARTMENT OF
-Subtier
-FOOD AND DRUG ADMINISTRATION
-Office
-FDA OFFICE OF ACQ GRANT SVCS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 08, 2022, 08:00 PM GMT+1
-Notice Type
-Original Combined Synopsis/Solicitation
-Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z2DZ--Emergency Generator Farm and Switchgear Upgrades - Project: 605-19-400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ab9f1802fe634dd5aa5e8a27f8fa5ef6/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z2DZ--Emergency Generator Farm and Switchgear Upgrades - Project: 605-19-400
-Notice ID: 36C26222B0005
-Project 605-19-400: Emergency Generator Farm and Switchgear Upgrade
-...
-Department/Ind.Agency
-VETERANS AFFAIRS, DEPARTMENT OF
-Subtier
-VETERANS AFFAIRS, DEPARTMENT OF
-Office
-262-NETWORK CONTRACT OFFICE 22L (36C262)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 30, 2022, 07:00 PM GMT+1
+US ARMY ENGINEER DISTRICT JPN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 23, 2022, 03:00 PM GMT+1
 Notice Type
 Updated Solicitation
 Updated Date
-Jun 4, 2022 (2)
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022 PATROL VEHICLE OUTFITTING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/712354cb09d7457599de3f4b4a0e5296/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022 PATROL VEHICLE OUTFITTING
-Notice ID: 140P8322Q0042
-Equipment Installation and Service for Law Enforcement and Emergency Response Vehicles for Olympic National Park....
-Department/Ind.Agency
-INTERIOR, DEPARTMENT OF THE
-Subtier
-NATIONAL PARK SERVICE
-Office
-PWR OLYM MABO(83000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 23, 2022, 01:00 AM GMT+1
-Notice Type
-Original Combined Synopsis/Solicitation
-Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dry-Dock (DD): USCGC HEALY (WAGB 20) Fiscal Year 2023 DD Repairs Amendment 0009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ec9a78d8b68b4de6baeefefea031d4cb/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dry-Dock (DD): USCGC HEALY (WAGB 20) Fiscal Year 2023 DD Repairs Amendment 0009
-Notice ID: 70Z08522RP4500700
-See the attached AMENDMENT 0009 which extends the due date for proposals/offers to June 13, 2022 at 10:00 am Pacific Time. 
-**********
-...
-Department/Ind.Agency
-HOMELAND SECURITY, DEPARTMENT OF
-Subtier
-U.S. COAST GUARD
-Office
-SFLC PROCUREMENT BRANCH 2(00085)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 13, 2022, 06:00 PM GMT+1
-Notice Type
-Updated Combined Synopsis/Solicitation
-Updated Date
-Jun 4, 2022 (5)
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On-Call Pediatric General Surgeon Services at Tripler Army Medical Center, Hawaii</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/c974fef6f5b248839dcfec7882638634/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On-Call Pediatric General Surgeon Services at Tripler Army Medical Center, Hawaii
-Notice ID: W81K0222Q0054
-Solicitation W81K0222Q0054 is issued and attached.  
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE ARMY
-Office
-W40M REGIONAL HEALTH CONTRACTING OF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 06, 2022, 09:00 PM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>William O. Huske Lock and Dam Esplanade Repair, Bladen County, North Carolina</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/0e8c26ced219455483947d70d1f85677/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>William O. Huske Lock and Dam Esplanade Repair, Bladen County, North Carolina
-Notice ID: W912pm22B0016
-The U.S. Army Corps of Engineers, Wilmington District requires a contract for the William O. Huske Lock and Dam Esplanade Repair located in Bladen
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE ARMY
-Office
-US ARMY ENGINEER DISTRICT WILMINGTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 08, 2022, 07:00 PM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Solid Waste Management - Refuse Collection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/1bc699b2933d4801a158c690bac7dee8/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Solid Waste Management - Refuse Collection
-Notice ID: W911SG-22-R-0018
-The Mission and Installation Contracting Command (MICC) Fort Bliss, is issuing a Request for Proposal (RFP) solicitation for Solid Waste Management
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE ARMY
-Office
-W6QM MICC-FT BLISS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 13, 2022, 10:00 PM GMT+1
-Notice Type
-Updated Solicitation
-Updated Date
-Jun 4, 2022 (3)
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NAWCAD WOLF - Replacement AN/APN-245 Magnetron Modulator Assemblies (MMAs)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/1f0ae5f5d94342ffa1bd5c3ff055d90a/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NAWCAD WOLF - Replacement AN/APN-245 Magnetron Modulator Assemblies (MMAs)
-Notice ID: N0042122Q0286
-Solicitation Information
-All quotes/responses shall be submitted via email to Maria Sproul at maria.a.sproul.civ@us.navy.mil no lat
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE NAVY
-Office
-NAVAL AIR WARFARE CENTER AIR DIV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 10, 2022, 10:00 PM GMT+1
-Notice Type
-Original Combined Synopsis/Solicitation
-Updated Date
-Jun 4, 2022
-Published Date
-Jun 4, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y--GLBA 266667-Replace Concessioner Housing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/d36a5416423b4dd39c2423268b01787e/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y--GLBA 266667-Replace Concessioner Housing
-Notice ID: 140P2022R0105
-GLBA 266667 - Replace Concessioner Housing &amp; Maintenance Building (GAOA Project) - Glacier Bay National Park and Preserve in Gustavus, Alaska
-...
-Department/Ind.Agency
-INTERIOR, DEPARTMENT OF THE
-Subtier
-NATIONAL PARK SERVICE
-Office
-DSC CONTRACTING SERVICES DIVISION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-June 24, 2022, 07:00 PM GMT+1
-Notice Type
-Updated Solicitation
-Updated Date
-Jun 4, 2022 (2)
-Published Date
-Jun 4, 2022</x:t>
+Jun 6, 2022 (3)
+Published Date
+Jun 6, 2022</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -829,7 +926,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D17"/>
+  <x:dimension ref="A1:D20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -902,175 +999,217 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>79</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/All Records with out Keyword.xlsx
+++ b/All Records with out Keyword.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>Site Name</x:t>
   </x:si>
@@ -28,363 +28,407 @@
     <x:t>Site NoticeType</x:t>
   </x:si>
   <x:si>
-    <x:t>U.S. Government seeks to lease 7,400 - 8,000 ABOA SF of Office and Related Space in Bemidji, MN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ba90a73e3ebe43469df1c7d541ef77d4/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U.S. Government seeks to lease 7,400 - 8,000 ABOA SF of Office and Related Space in Bemidji, MN
-Notice ID: 1MN2107
-General Services Administration (GSA) seeks to lease the following space:
-State: Minnesota
-City:
+    <x:t>Small Tactical Electric Power 3-Kilowatt(STEP 3kW)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/89685cb08be14b2d9664b0cd90055f26/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Small Tactical Electric Power 3-Kilowatt(STEP 3kW)
+Notice ID: W909MY-22-R-0009
+Introduction
+This Solicitation is for the award of up to three (3) Engineering and Manufacturing Development (EMD) contracts for a new/improv
 ...
 Department/Ind.Agency
-GENERAL SERVICES ADMINISTRATION
-Subtier
-PUBLIC BUILDINGS SERVICE
-Office
-PBS R5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 23, 2022, 05:59 AM GMT+1
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE ARMY
+Office
+ACC-ABERDEEN PROVING GROUNDS CONT C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 25, 2022, 07:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Repair of C-5 Tubing and Fitting (Aileron Servo Assembly)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/27e92b1e2ac04a1791f1811b796c9133/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Repair of C-5 Tubing and Fitting (Aileron Servo Assembly)
+Notice ID: FA853822R0013
+This notice is the formal issuance of Solicitation FA8538-22-R-0013 issued by AFSC/PZAAB C-5, C-130, and F-15 Supply Chain Contracting Section. The
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE AIR FORCE
+Office
+FA8538 AFSC PZAAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 25, 2022, 09:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y1DA--652-18-930 ER Headwall Renovation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/cbcb935cace6426c94559cf5400f6252/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y1DA--652-18-930 ER Headwall Renovation
+Notice ID: 36C24622B0010
+See SOW for Additional Information ...
+Department/Ind.Agency
+VETERANS AFFAIRS, DEPARTMENT OF
+Subtier
+VETERANS AFFAIRS, DEPARTMENT OF
+Office
+246-NETWORK CONTRACTING OFFICE 6 (36C246)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 28, 2022, 03:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89--Food/ Subsistence/ Beverage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/180cf585468f427397a6e6ea7c01f12a/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89--Food/ Subsistence/ Beverage
+Notice ID: ACO392nd0000000020220610
+This is a combined synopsis/solicitation for commercial items prepared in accordance with the format in FAR Subpart 12.6, as supplemented with additio...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE ARMY
+Office
+W6QM MICC-FT DRUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 15, 2022, 04:00 PM GMT+1
 Notice Type
 Original Combined Synopsis/Solicitation
 Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1DB--Port Charlotte CBOC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/e9f3b667e8b14c878166f66afaa662c4/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1DB--Port Charlotte CBOC
-Notice ID: 36C24822R0048
-The purpose of this amendment is to: Extend the due date for responses Respond to questions and answers (see attached Questions and Answers pdf) ...
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1377-01-448-9910 SS49 GGU-15A/A Gas Generator, Dry Bay Fire Extinguisher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/47ee51aa39094083ba03126a39ea5a0c/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1377-01-448-9910 SS49 GGU-15A/A Gas Generator, Dry Bay Fire Extinguisher
+Notice ID: N0010422RK054
+N772. Paper copies will not be provided. Procurement is restricted to General Dynamics. A limited drawing package is available. Drawings are NOT avail...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+NAVSUP WEAPON SYSTEMS SUPPORT MECH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 26, 2022, 06:00 AM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 10, 2022 (2)
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTOM INTRF SP1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/5cbfaeaf2dc0475c8798c6e4cf08caa2/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTOM INTRF SP1
+Notice ID: N0010422QXB44
+ITEM UNIQUE IDENTIFICATION AND VALUATION (MAR 2022)|19|||||||||||||||||||| INSPECTION OF SUPPLIES--FIXED-PRICE (AUG 1996)|2||| NAVY USE OF ABILITYONE ...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+NAVSUP WEAPON SYSTEMS SUPPORT MECH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 25, 2022, 06:00 AM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 10, 2022 (1)
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marine Corps Wideband Satellite - Light and Heavy (MCWS-L/H) Solicitation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/129f69bff51e486ea3151ccf184fd18b/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marine Corps Wideband Satellite - Light and Heavy (MCWS-L/H) Solicitation
+Notice ID: M6785422R2001
+THIS IS A REQUEST FOR PROPOSAL (RFP). The Marine Corps Systems Command (MCSC), Quantico, VA, requires delivery of Marine Corps Wideband Satellite C
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+COMMANDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 26, 2022, 03:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gospel Service Worship Leader-Drummer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/faaf2120ea124da39061cb697d03f1a6/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gospel Service Worship Leader-Drummer
+Notice ID: W911S7-22-R-0009
+Solicitation, Statement of Work (SOW) and Wage Determination is attached. 
+Questions are due NLT 15 July 2022 by 1600 CST,
+Ans
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE ARMY
+Office
+W6QM MICC-FT LEONARD WOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 29, 2022, 10:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Residential Reentry Center (RRC) Services and Home Confinement Services Located in the State of Nebraska within and/or to the West of the Counties of Boyd, Holt, Wheeler, Greeley, Howard, Hall, Hamilton, Clay, or Nuckolls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/c9682e621d5840eebc26a6b14c370018/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Residential Reentry Center (RRC) Services and Home Confinement Services Located in the State of Nebraska within and/or to the West of the Counties of Boyd, Holt, Wheeler, Greeley, Howard, Hall, Hamilton, Clay, or Nuckolls
+Notice ID: 15BRRC22R00000005
+The Federal Bureau of Prisons is seeking concerns having the ability for providing Residential Reentry Center (RRC) services (in-house RRC beds) an
+...
+Department/Ind.Agency
+JUSTICE, DEPARTMENT OF
+Subtier
+FEDERAL PRISON SYSTEM / BUREAU OF PRISONS
+Office
+RESIDENTIAL REENTRY - CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 08, 2022, 07:10 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z1DA--528-19-104 SITE PREP EMERGENCY DEPARTMENT X-RAY EQUIPMENT | Actionable Package: 4/19/2022 l Current Milestone: Presolicitation l Proposed Posting: 5/15/2022 l Proposed Award: 7/15/2022 l Comments: 4/19/2022-Assigned to CO and</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/d96d6f0b6b0e43c3b9f0f98449c04150/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z1DA--528-19-104 SITE PREP EMERGENCY DEPARTMENT X-RAY EQUIPMENT | Actionable Package: 4/19/2022 l Current Milestone: Presolicitation l Proposed Posting: 5/15/2022 l Proposed Award: 7/15/2022 l Comments: 4/19/2022-Assigned to CO and
+Notice ID: 36C24222B0041
+THIS PAGE LEFT BLANK INTENTIONALLY ...
 Department/Ind.Agency
 VETERANS AFFAIRS, DEPARTMENT OF
 Subtier
 VETERANS AFFAIRS, DEPARTMENT OF
 Office
-248-NETWORK CONTRACT OFFICE 8 (36C248)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 29, 2022, 08:00 PM GMT+1
-Notice Type
-Updated Combined Synopsis/Solicitation
-Updated Date
-Jun 7, 2022 (1)
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First Strike Ration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/698d35418daa4799a8d869b70ffb00bb/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First Strike Ration
-Notice ID: SPE3S1-22-R-0008
-Solicitation Notice for the upcoming First Strike Ration contract.
+242-NETWORK CONTRACT OFFICE 02 (36C242)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 19, 2022, 06:00 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 10, 2022 (1)
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WASO_CECH_267542_EX PLAN &amp; DESIGN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/d792b8eec4404512900aad0e29d6c959/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WASO_CECH_267542_EX PLAN &amp; DESIGN
+Notice ID: 140P2122R0026
+WASO_CECH_EX PLAN &amp; DESIGN...
+Department/Ind.Agency
+INTERIOR, DEPARTMENT OF THE
+Subtier
+NATIONAL PARK SERVICE
+Office
+WASHINGTON CONTRACTING OFFICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 18, 2022, 03:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contractor-Owned, Contractor Operated (COCO) Fuel Storage Services on the Island of Oahu, Hawaii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/d710800a165245d994cbe8c36d776ec9/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contractor-Owned, Contractor Operated (COCO) Fuel Storage Services on the Island of Oahu, Hawaii
+Notice ID: SPE603-22-R-0511
+Defense Logistics Agency (DLA) – Energy – FESBB solicitation and attachments for a Contractor-Owned Contractor Operated (COCO) fuel sto
 ...
 Department/Ind.Agency
 DEPT OF DEFENSE
 Subtier
 DEFENSE LOGISTICS AGENCY (DLA)
 Office
-DLA TROOP SUPPORT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-August 04, 2022, 08:00 PM GMT+1
+DLA ENERGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 25, 2022, 08:00 PM GMT+1
 Notice Type
 Updated Solicitation
 Updated Date
-Jun 7, 2022 (1)
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/a65b1429760e40ee9e7a63191655dc70/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006f
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
+Jun 10, 2022 (1)
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HELICOPTER RESCUE OPS MAINTENANCE HANGAR KADENA AB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/e8c9688cb6b44dcfab1bd94c7d385b29/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HELICOPTER RESCUE OPS MAINTENANCE HANGAR KADENA AB
+Notice ID: W912HV22R0005
+June 10, 2022: Extend the proposal due date to 30 August 2022 at 2:00 PM, JST from 14 June 2022. All other terms and condit
 ...
 Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 29, 2022, 06:00 PM GMT+1
-Notice Type
-Original Combined Synopsis/Solicitation
-Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Machine Shop Rapid Prototyping Solicitation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/d37167e22b3b45fb8e019682b6e0445f/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Machine Shop Rapid Prototyping Solicitation
-Notice ID: N0017822R4305
-The Naval Surface Warfare Center, Dahlgren Division (NSWCDD) has a need for the rapid manufacture, assembly, inspection and delivery of machined pr
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE ARMY
+Office
+US ARMY ENGINEER DISTRICT JPN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 30, 2022, 06:00 AM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 10, 2022 (3)
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Construction: NFSR 700 and 91 Recondition/Resurface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/8efef603f0264783b79ad0ce1a29c596/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Construction: NFSR 700 and 91 Recondition/Resurface
+Notice ID: 127EAX22R0034
+Project:  The USDA Forest Service, Coconino National Forest, Flagstaff Ranger District, has a requirement fo
 ...
 Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE NAVY
-Office
-NSWC DAHLGREN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 29, 2022, 05:00 PM GMT+1
-Notice Type
-Updated Solicitation
-Updated Date
-Jun 7, 2022 (2)
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/b3fb7959d99c4f368f9f0b708aab436e/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006e
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/3fb601e2aa3c43c9965bfc7227f337d0/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006d
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ccc9953b3ba340c1847e77840d101934/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006c
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/b81c4ec7623a44229a2ca5a818aee33c/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006b
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ab5c704200134348b96c988aa4e6ebd8/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006a
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Courtesy Dock, Lake Mead, Nevada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/b9238855fc744b018e2d5f32709f7731/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Courtesy Dock, Lake Mead, Nevada
-Notice ID: 140P8122R0005
-Replace Courtesy Dock at Hemenway Harbor Lake Mead National Recreation Area...
-Department/Ind.Agency
-INTERIOR, DEPARTMENT OF THE
-Subtier
-NATIONAL PARK SERVICE
-Office
-PWR LAME(81000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 21, 2022, 10:00 PM GMT+1
+AGRICULTURE, DEPARTMENT OF
+Subtier
+FOREST SERVICE
+Office
+Southwestern Regional Office, Region 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 20, 2022, 12:00 AM GMT+1
 Notice Type
 Original Solicitation
 Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Fishing Pier, Lake Mead, Nevada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/30cf9f43e10d410b9cbaaccb9ff54f73/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Fishing Pier, Lake Mead, Nevada
-Notice ID: 140P8122R0004
-Replace Hemenway Harbor Fishing Pier, Lake Mead National Recreation Area....
-Department/Ind.Agency
-INTERIOR, DEPARTMENT OF THE
-Subtier
-NATIONAL PARK SERVICE
-Office
-PWR LAME(81000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stryker Upgrade Kit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/471b92d98b5f484399484de6e2bf9aae/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stryker Upgrade Kit
-Notice ID: SPRRA2-22-R-0024-0001
-DLA AHCA
-REFER
-June 6, 2022
-Raytheon Company
-2501 W. University Drive,
-McKinney, TX 75071
-RE: Amendment 0001 to
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEFENSE LOGISTICS AGENCY (DLA)
-Office
-DLA AVIATION AT HUNTSVILLE, AL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-September 06, 2022, 10:00 PM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59--SWITCH ASSEMBLY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ac36c51ad2b64d1ea8297f46d3283282/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59--SWITCH ASSEMBLY
-Notice ID: SPRMM122QWM76
-ITEM UNIQUE IDENTIFICATION AND VALUATION (MAR 2022)|19|||||||||||||||||||| HIGHER-LEVEL CONTRACT QUALITY REQUIREMENT (NAVICP REVIEW FEB 1991)(FEB 1999...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEFENSE LOGISTICS AGENCY (DLA)
-Office
-SPRMM1 DLA MECHANICSBURG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-August 08, 2022, 06:00 AM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mission Planning Support Contract IV (MPSC IV)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/f4f0b6ac52584d5cbc00dcd0216b80dc/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mission Planning Support Contract IV (MPSC IV)
-Notice ID: FA8217-22-R-0001
-6/6/2022:
-The purpose of this action is to post the Request for Proposal (RFP) for the Mission Planning Support Contract (MPSC) IV. We are
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE AIR FORCE
-Office
-FA8217 AFLCMC PZZK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 21, 2022, 11:00 PM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -735,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D16"/>
+  <x:dimension ref="A1:D15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -827,142 +871,128 @@
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="A16" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
